--- a/output/LPM/instance1_Schedule_vCp2n150s12d1.xlsx
+++ b/output/LPM/instance1_Schedule_vCp2n150s12d1.xlsx
@@ -520,12 +520,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ROSA MARIA TERESA WILLSON SALDAÑA</t>
+          <t>CESAR FERRADA GUTIERREZ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>TRAUMATO_2</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
         <v>7</v>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EMANUEL LLANQUINAO CANSECO</t>
+          <t>SAMUEL ABRAHAN DAVILA LILLO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -589,16 +589,16 @@
         <v>4</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -609,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CRISTIAN MARCELO ANDRADE TAZAICO</t>
+          <t>VICENTE FABIAN ESCOBAR LUENGO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>3</v>
@@ -640,7 +640,7 @@
         <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
@@ -651,17 +651,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GAEL MAURICIO ESPINOZA ALTAMIRANO</t>
+          <t>CRISTIAN MARCELO ANDRADE TAZAICO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -673,16 +673,16 @@
         <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -693,7 +693,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>VICENTE FABIAN ESCOBAR LUENGO</t>
+          <t>GAEL MAURICIO ESPINOZA ALTAMIRANO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JOAQUIN IGNACIO VERDUGO BURGOS</t>
+          <t>LUCIA AMPARO CACERES VALENZUELA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -757,16 +757,16 @@
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -777,7 +777,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CRISTOBAL ORLANDO MELLADO CAMPOS</t>
+          <t>JOAQUIN IGNACIO VERDUGO BURGOS</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DIEGO IGNACIO SEPULVEDA BADILLA</t>
+          <t>MARTIN ALEJANDRO ARTIGAS SUAZO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -861,17 +861,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SOFIA EMILIA GODOY LAGOS</t>
+          <t>DAVID ALONSO CALDERON VALENZUELA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -880,19 +880,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -914,7 +914,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BLOQUE 0</t>
+          <t>BLOQUE 1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -924,14 +924,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>GENERAL_1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>GENERAL_2</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>TRAUMATO_1</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>CIRUGIA GENERAL</t>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -961,17 +961,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>VIVIANA ANGELICA DIAZ FIGUEROA</t>
+          <t>SUSAN MACARENA OÑATE HUAIQUIL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -980,19 +980,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4</v>
+      </c>
+      <c r="J15" t="n">
         <v>7</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JOSE MANUEL SAGREDO TAPIA</t>
+          <t>FRANCISCO JAVIER BORQUEZ BORQUEZ</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1040,12 +1040,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 7</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LISETTE PATRICIA MUÑOZ ARRATIA</t>
+          <t>RAYDORETH ISABEL GODOY ALVARADO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TRAUMATO_2</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1082,24 +1082,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BLOQUE 7</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LISETTE PATRICIA MUÑOZ ARRATIA</t>
+          <t>DANITZA EVELYN HUENCHUMIL MILLACHEO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>GENERAL_2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>GENERAL_1</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>TRAUMATO_2</t>
-        </is>
-      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>CIRUGIA GENERAL</t>
@@ -1109,27 +1109,27 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DANIELA MACARENA TORRES VEGA</t>
+          <t>MARCELA ANDREA JARA ROCHA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1166,12 +1166,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FRANCISCO JAVIER BORQUEZ BORQUEZ</t>
+          <t>MICHELLE LEONARDO MORALES ROJAS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1208,12 +1208,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CAMILA BELEN SANHUEZA ROMERO</t>
+          <t>VIVIANA  ALEJANDRA CONTRERAS ERICES</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>4</v>
@@ -1244,18 +1244,18 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MARCELA ANDREA JARA ROCHA</t>
+          <t>JUANA VALESCA LINQUEO ÑANCUL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1292,12 +1292,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GUILLERMO AARON NACO BARRA MORALES</t>
+          <t>GRIXY GENESIS SALVO ROJAS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>4</v>
@@ -1328,18 +1328,18 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CESAR FERRADA GUTIERREZ</t>
+          <t>CAMILA ANDREA ZAMBRANO DE  LA HOZ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1376,12 +1376,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VIVIANA  ALEJANDRA CONTRERAS ERICES</t>
+          <t>ROSA MARIA TERESA WILLSON SALDAÑA</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1418,80 +1418,80 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>DANITZA EVELYN HUENCHUMIL MILLACHEO</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>GENERAL_2</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>GENERAL_1</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>CIRUGIA GENERAL</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>4</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>5</v>
-      </c>
+          <t>PABELLON 2</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PABELLON 2</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+          <t>BLOQUE 0</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ETELVINA DEL CARMEN SAEZ RAMIREZ</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>OFTALMO_1</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>GINECO_2</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>OFTALMOLOGIA</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BLOQUE 0</t>
+          <t>BLOQUE 1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LUIS ALEJANDRO PACHECO LAGOS</t>
+          <t>FILOMENA DEL CARMEN  JARA GODOY</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1509,31 +1509,31 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
+          <t>BLOQUE 2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JOSE MANUEL CHANDIA CATRIUPAY</t>
+          <t>ISMAEL CONTRERAS RIQUELME</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1551,21 +1551,21 @@
         <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BLOQUE 2</t>
+          <t>BLOQUE 3</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>JOSE OSCAR ISLA ROCHA</t>
+          <t>ILVA MAGDALENA CARRASCO MALDONADO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1602,17 +1602,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BLOQUE 3</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ENRIQUE ANTONIO JORQUERA MUÑOZ</t>
+          <t>JOSE OSCAR ISLA ROCHA</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1635,21 +1635,21 @@
         <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 5</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CECILIA DEL CARMEN BARRALES GONZALEZ</t>
+          <t>JOSE EDGARDO ERICES VALDEBENITO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1686,12 +1686,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BLOQUE 5</t>
+          <t>BLOQUE 6</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PASCUALA LUISA QUILALEO LINCOÑIR</t>
+          <t>CECILIA DEL CARMEN BARRALES GONZALEZ</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1728,12 +1728,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 7</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ILVA MAGDALENA CARRASCO MALDONADO</t>
+          <t>MARGARITA ELENA CASTILLO CISTERNA</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1770,12 +1770,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BLOQUE 7</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ISMAEL CONTRERAS RIQUELME</t>
+          <t>JOSE GARCES RIQUELME</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1797,22 +1797,22 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H36" t="n">
         <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>JOSE GARCES RIQUELME</t>
+          <t>JOSE MANUEL CHANDIA CATRIUPAY</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1878,40 +1878,40 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MARIA TERESA LEAL FERNANDEZ</t>
+          <t>PASCUALA LUISA QUILALEO LINCOÑIR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1920,30 +1920,30 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H38" t="n">
         <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ETELVINA DEL CARMEN SAEZ RAMIREZ</t>
+          <t>DESIDERIO AREVALO SOTO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1980,22 +1980,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DESIDERIO AREVALO SOTO</t>
+          <t>LUIS ALEJANDRO PACHECO LAGOS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2007,37 +2007,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H40" t="n">
         <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>JOSE EDGARDO ERICES VALDEBENITO</t>
+          <t>JUAN DE LA CRUZ MUÑOZ ASTETE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2046,30 +2046,30 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FILOMENA DEL CARMEN  JARA GODOY</t>
+          <t>MARIA TERESA LEAL FERNANDEZ</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>7</v>
@@ -2100,88 +2100,88 @@
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>JUAN DE LA CRUZ MUÑOZ ASTETE</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>OFTALMO_2</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>INFANTIL_1</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>OFTALMOLOGIA</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>7</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>10</v>
-      </c>
+          <t>PABELLON 3</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PABELLON 3</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+          <t>BLOQUE 0</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>DAMARY DAMIANA AGUIRRE AGUIRRE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>GINECO_1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>INFANTIL_1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>GINECOLOGIA</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>4</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BLOQUE 0</t>
+          <t>BLOQUE 1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ALEJANDRA MARISOL LIZANA MEZA</t>
+          <t>CATYBELL MARIA DURAN ULLOA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>GINECO_2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>GINECO_1</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>INFANTIL_1</t>
-        </is>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>GINECOLOGIA</t>
@@ -2191,27 +2191,27 @@
         <v>4</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
+          <t>BLOQUE 2</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PATRICIA RIQUELME GONZALEZ</t>
+          <t>RAQUEL AURORA CONTADOR JIMENEZ</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2248,12 +2248,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BLOQUE 2</t>
+          <t>BLOQUE 3</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CATYBELL MARIA DURAN ULLOA</t>
+          <t>ISABEL DEL CARMEN MONARES MARTÍNEZ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2290,24 +2290,24 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BLOQUE 3</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PATRICIA VIVIANA  LEIVA CARRASCO</t>
+          <t>ELENA DEL CARMEN REYES AGUILERA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>GINECO_2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>GINECO_1</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>INFANTIL_2</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>GINECOLOGIA</t>
@@ -2317,27 +2317,27 @@
         <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 5</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MARIBEL DEL CARMEN MARILEO FLORES</t>
+          <t>ALEJANDRA MARISOL LIZANA MEZA</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2347,7 +2347,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2374,12 +2374,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BLOQUE 5</t>
+          <t>BLOQUE 6</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>PATRICIA ALEJANDRA OLAVE RAMOS</t>
+          <t>PATRICIA RIQUELME GONZALEZ</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2389,7 +2389,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2416,22 +2416,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 7</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>RAQUEL AURORA CONTADOR JIMENEZ</t>
+          <t>PATRICIA VIVIANA  LEIVA CARRASCO</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2443,69 +2443,69 @@
         <v>4</v>
       </c>
       <c r="G51" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BLOQUE 7</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ALEJANDRA BEATRIZ BELTRAN DIAZ</t>
+          <t>EDGARD NEFTALY MUÑOZ ROCHA</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>GINECOLOGIA</t>
+          <t>OTORRINOLARINGOLOGIA</t>
         </is>
       </c>
       <c r="F52" t="n">
         <v>4</v>
       </c>
       <c r="G52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ANIBAL EDUARDO BURDILES MEDINA</t>
+          <t>HELMUTH FERNANDO ARIAS NAVARRO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2542,22 +2542,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>JONATHAN PHILLIP FLORES SEGUEL</t>
+          <t>LAURA CID PONSOT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2569,37 +2569,37 @@
         <v>4</v>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ELIA DEL CARMEN PEREIRA SOBARZO</t>
+          <t>JOCELYN MARISELLA MUÑOZ JARA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2611,39 +2611,39 @@
         <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JOCELYN MARISELLA MUÑOZ JARA</t>
+          <t>MARIA ELENA PEREIRA JIMENEZ</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>OTORRINO_1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>OTORRINO_2</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>TRAUMATO_2</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>OTORRINOLARINGOLOGIA</t>
@@ -2653,27 +2653,27 @@
         <v>4</v>
       </c>
       <c r="G56" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HELMUTH FERNANDO ARIAS NAVARRO</t>
+          <t>JONATHAN PHILLIP FLORES SEGUEL</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2710,24 +2710,24 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 14</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>EDGARD NEFTALY MUÑOZ ROCHA</t>
+          <t>ELIA DEL CARMEN PEREIRA SOBARZO</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>OTORRINO_1</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>OTORRINO_2</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>GINECO_2</t>
-        </is>
-      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>OTORRINOLARINGOLOGIA</t>
@@ -2737,27 +2737,27 @@
         <v>4</v>
       </c>
       <c r="G58" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MARIA ELENA PEREIRA JIMENEZ</t>
+          <t>ANIBAL EDUARDO BURDILES MEDINA</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2792,46 +2792,16 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>BLOQUE 15</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>LAURA CID PONSOT</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>OTORRINO_1</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>OTORRINO_2</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>OTORRINOLARINGOLOGIA</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>4</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>8</v>
-      </c>
+      <c r="A60" t="inlineStr"/>
+      <c r="B60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>

--- a/output/LPM/instance1_Schedule_vCp2n150s12d1.xlsx
+++ b/output/LPM/instance1_Schedule_vCp2n150s12d1.xlsx
@@ -520,96 +520,96 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BLOQUE 8</t>
+          <t>BLOQUE 0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CRISTOBAL ORLANDO MELLADO CAMPOS</t>
+          <t>NAYADETH ESTEFANY CHAIHUEQUE ARIAS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CIRUGIA INFANTIL</t>
+          <t>CIRUGIA GENERAL</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BLOQUE 9</t>
+          <t>BLOQUE 3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EMANUEL LLANQUINAO CANSECO</t>
+          <t>CESAR FERRADA GUTIERREZ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CIRUGIA INFANTIL</t>
+          <t>CIRUGIA GENERAL</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLOQUE 10</t>
+          <t>BLOQUE 8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>VICENTE ANDRES DONOSO MONROY</t>
+          <t>SAMUEL ABRAHAN DAVILA LILLO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,17 +646,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BLOQUE 11</t>
+          <t>BLOQUE 9</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VICENTE FABIAN ESCOBAR LUENGO</t>
+          <t>EMANUEL LLANQUINAO CANSECO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -673,27 +673,27 @@
         <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BLOQUE 12</t>
+          <t>BLOQUE 10</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ALONSO DAMIAN NOVOA SAEZ</t>
+          <t>JOAQUIN IGNACIO VERDUGO BURGOS</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -730,12 +730,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BLOQUE 13</t>
+          <t>BLOQUE 11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>JOAQUIN IGNACIO VERDUGO BURGOS</t>
+          <t>DAVID ALONSO CALDERON VALENZUELA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -772,7 +772,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BLOQUE 14</t>
+          <t>BLOQUE 12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TRAUMATO_2</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -808,13 +808,13 @@
         <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BLOQUE 15</t>
+          <t>BLOQUE 13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -856,112 +856,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PABELLON 1</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>BLOQUE 14</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DIEGO IGNACIO SEPULVEDA BADILLA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>INFANTIL_2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GINECO_2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CIRUGIA INFANTIL</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BLOQUE 0</t>
+          <t>BLOQUE 15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DANITZA EVELYN HUENCHUMIL MILLACHEO</t>
+          <t>LUCIA AMPARO CACERES VALENZUELA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CIRUGIA GENERAL</t>
+          <t>CIRUGIA INFANTIL</t>
         </is>
       </c>
       <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="n">
-        <v>7</v>
-      </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BLOQUE 1</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ALICIA ESTER MELGAREJO AGUAYO</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>GENERAL_1</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>TRAUMATO_2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>CIRUGIA GENERAL</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>7</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11</v>
-      </c>
+          <t>PABELLON 1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BLOQUE 3</t>
+          <t>BLOQUE 0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FERNANDA MACARENA IBAÑEZ ASTETE</t>
+          <t>MARCELA ANDREA JARA ROCHA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -998,12 +998,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BLOQUE 4</t>
+          <t>BLOQUE 1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIRCY GRACIELA NAVARRO PRADO</t>
+          <t>ALICIA ESTER MELGAREJO AGUAYO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TRAUMATO_2</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1040,12 +1040,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BLOQUE 5</t>
+          <t>BLOQUE 4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CARLOS ANTONIO FUENTES CONTRERAS</t>
+          <t>OSCAR ESTEBAN ULLOA ARTIGAS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>7</v>
@@ -1076,18 +1076,18 @@
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BLOQUE 6</t>
+          <t>BLOQUE 5</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CARLOS ANTONIO FUENTES CONTRERAS</t>
+          <t>OSCAR ESTEBAN ULLOA ARTIGAS</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1097,7 +1097,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>7</v>
@@ -1118,18 +1118,18 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BLOQUE 7</t>
+          <t>BLOQUE 6</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CARLOS ANTONIO FUENTES CONTRERAS</t>
+          <t>OSCAR ESTEBAN ULLOA ARTIGAS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>GENERAL_2</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>7</v>
@@ -1160,7 +1160,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VIVIANA  ALEJANDRA CONTRERAS ERICES</t>
+          <t>SUSAN MACARENA OÑATE HUAIQUIL</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KATHERINE SOLEDAD FLORES ESCALONA</t>
+          <t>MACARENA ALEJANDRA GONZÁLEZ BUSTAMANTE</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MARCELA ANDREA JARA ROCHA</t>
+          <t>GRIXY GENESIS SALVO ROJAS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CESAR FERRADA GUTIERREZ</t>
+          <t>FRANCISCO JAVIER BORQUEZ BORQUEZ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>TRAUMATO_1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GRIXY GENESIS SALVO ROJAS</t>
+          <t>DANITZA EVELYN HUENCHUMIL MILLACHEO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>RAYDORETH ISABEL GODOY ALVARADO</t>
+          <t>MICHELLE LEONARDO MORALES ROJAS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TRAUMATO_1</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>4</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MICHELLE LEONARDO MORALES ROJAS</t>
+          <t>KATHERINE SOLEDAD FLORES ESCALONA</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1523,17 +1523,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>JOSE MANUEL CHANDIA CATRIUPAY</t>
+          <t>FILOMENA DEL CARMEN  JARA GODOY</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1551,10 +1551,10 @@
         <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1565,17 +1565,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CECILIA DEL CARMEN BARRALES GONZALEZ</t>
+          <t>ISAAC DE LA CRUZ INOSTROZA MELLAO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1593,10 +1593,10 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>JUAN DE LA CRUZ MUÑOZ ASTETE</t>
+          <t>ISMAEL CONTRERAS RIQUELME</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1617,7 +1617,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ILVA MAGDALENA CARRASCO MALDONADO</t>
+          <t>DESIDERIO AREVALO SOTO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>GENERAL_1</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LUIS ALEJANDRO PACHECO LAGOS</t>
+          <t>ETELVINA DEL CARMEN SAEZ RAMIREZ</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>JOSE EDGARDO ERICES VALDEBENITO</t>
+          <t>CECILIA DEL CARMEN BARRALES GONZALEZ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>OTORRINO_1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1775,17 +1775,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ISMAEL CONTRERAS RIQUELME</t>
+          <t>JOSE OSCAR ISLA ROCHA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1803,10 +1803,10 @@
         <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -1817,26 +1817,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MARGARITA ELENA CASTILLO CISTERNA</t>
+          <t>JUAN DE LA CRUZ MUÑOZ ASTETE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>OFTALMO_1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>OFTALMO_2</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>INFANTIL_1</t>
-        </is>
-      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>OFTALMOLOGIA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1845,7 +1845,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1878,7 +1878,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -1890,7 +1890,7 @@
         <v>4</v>
       </c>
       <c r="J37" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -1932,7 +1932,7 @@
         <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ETELVINA DEL CARMEN SAEZ RAMIREZ</t>
+          <t>MARIA TERESA LEAL FERNANDEZ</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1965,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H39" t="n">
         <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MARIA TERESA LEAL FERNANDEZ</t>
+          <t>PASCUALA LUISA QUILALEO LINCOÑIR</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2027,17 +2027,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FILOMENA DEL CARMEN  JARA GODOY</t>
+          <t>JOSE MANUEL CHANDIA CATRIUPAY</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GINECO_2</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DESIDERIO AREVALO SOTO</t>
+          <t>LUIS ALEJANDRO PACHECO LAGOS</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2111,17 +2111,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PASCUALA LUISA QUILALEO LINCOÑIR</t>
+          <t>ILVA MAGDALENA CARRASCO MALDONADO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>OFTALMO_1</t>
+          <t>OFTALMO_2</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2133,16 +2133,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44">
@@ -2153,17 +2153,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>JOSE OSCAR ISLA ROCHA</t>
+          <t>JOSE EDGARDO ERICES VALDEBENITO</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>OFTALMO_2</t>
+          <t>OFTALMO_1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>INFANTIL_1</t>
+          <t>GENERAL_1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2175,16 +2175,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>PATRICIA RIQUELME GONZALEZ</t>
+          <t>RAQUEL AURORA CONTADOR JIMENEZ</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2221,7 +2221,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>INFANTIL_2</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2253,19 +2253,19 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ISABEL DEL CARMEN MONARES MARTÍNEZ</t>
+          <t>VILMA DEL PILAR VERA AGUAYO</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>GINECO_2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>GINECO_1</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>INFANTIL_2</t>
-        </is>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>GINECOLOGIA</t>
@@ -2275,16 +2275,16 @@
         <v>4</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48">
@@ -2295,19 +2295,19 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>PATRICIA VIVIANA  LEIVA CARRASCO</t>
+          <t>ELENA DEL CARMEN REYES AGUILERA</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>GINECO_2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>GINECO_1</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>INFANTIL_1</t>
-        </is>
-      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>GINECOLOGIA</t>
@@ -2317,16 +2317,16 @@
         <v>4</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49">
@@ -2337,17 +2337,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ELENA DEL CARMEN REYES AGUILERA</t>
+          <t>PATRICIA RIQUELME GONZALEZ</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>INFANTIL_2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2359,16 +2359,16 @@
         <v>4</v>
       </c>
       <c r="G49" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>VALENTINA IGNACIA ORMEÑO HENRIQUEZ</t>
+          <t>PATRICIA VIVIANA  LEIVA CARRASCO</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MARIA TERESA ROMERO LEVIO</t>
+          <t>PATRICIA ALEJANDRA OLAVE RAMOS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2505,17 +2505,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>RAQUEL AURORA CONTADOR JIMENEZ</t>
+          <t>ISABEL DEL CARMEN MONARES MARTÍNEZ</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>GINECO_2</t>
+          <t>GINECO_1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>GINECO_1</t>
+          <t>INFANTIL_1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2527,16 +2527,16 @@
         <v>4</v>
       </c>
       <c r="G53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54">
@@ -2594,14 +2594,14 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>OTORRINO_1</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>OTORRINO_2</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GINECO_2</t>
-        </is>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>OTORRINOLARINGOLOGIA</t>
@@ -2611,16 +2611,16 @@
         <v>4</v>
       </c>
       <c r="G55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>JONATHAN PHILLIP FLORES SEGUEL</t>
+          <t>EDGARD NEFTALY MUÑOZ ROCHA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2715,7 +2715,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>EDGARD NEFTALY MUÑOZ ROCHA</t>
+          <t>MARIA ELENA PEREIRA JIMENEZ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MARIA ELENA PEREIRA JIMENEZ</t>
+          <t>JONATHAN PHILLIP FLORES SEGUEL</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>OTORRINO_1</t>
+          <t>OTORRINO_2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>OTORRINO_2</t>
+          <t>TRAUMATO_2</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2821,16 +2821,16 @@
         <v>4</v>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61">
